--- a/medicine/Psychotrope/Bartissol/Bartissol.xlsx
+++ b/medicine/Psychotrope/Bartissol/Bartissol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bartissol est une boisson apéritive appartenant à la catégorie des apéritifs à base de vin.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titrant 16 % d'alcool, il se présente en trois variantes: tuilé, ambré et ambré hors d'âge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titrant 16 % d'alcool, il se présente en trois variantes: tuilé, ambré et ambré hors d'âge.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bartissol a été élaboré à Banyuls-sur-Mer par le député Edmond Bartissol en 1904[2]. Il a reçu l'appellation Rivesaltes contrôlée après la Seconde Guerre mondiale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bartissol a été élaboré à Banyuls-sur-Mer par le député Edmond Bartissol en 1904. Il a reçu l'appellation Rivesaltes contrôlée après la Seconde Guerre mondiale.
 Pendant les années 1950-60, une célèbre émission publicitaire, L'Homme des vœux, fut diffusée sur Radio Luxembourg, Radio Andorre et Radio Monte-Carlo et sponsorisée par Bartissol.
-Cette marque appartient aujourd'hui à la société Pernod[1].
+Cette marque appartient aujourd'hui à la société Pernod.
 </t>
         </is>
       </c>
